--- a/APPLICATION INTERFACE TEXTE/APPLICATION INTERFACE TEXTE USER.xlsx
+++ b/APPLICATION INTERFACE TEXTE/APPLICATION INTERFACE TEXTE USER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NEW-DESIGNE\APPLICATION INTERFACE TEXTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C27F6C4-FCED-4ED9-8792-B2ECCCABB192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D247A-0DEE-4481-80E5-65DF9240482A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{34DD5217-F0FA-4B9A-9CB8-89431EAB1938}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="556">
   <si>
     <t xml:space="preserve">APPLICATION INTERFACE TEXT </t>
   </si>
@@ -1772,6 +1772,135 @@
 ( carte national) و نسخة تع النكوة
  دوك اجيك ايميل فيه وش لازم، وعيطلنا كيما تحب 
 فهاد النومرو : 213698343832    </t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>تسجيل</t>
+  </si>
+  <si>
+    <t>S'inscrire</t>
+  </si>
+  <si>
+    <t>Kayıt ol</t>
+  </si>
+  <si>
+    <t>Öğrenci misiniz ?</t>
+  </si>
+  <si>
+    <t>Are You Student ?</t>
+  </si>
+  <si>
+    <t>Êtes-vous étudiant ?</t>
+  </si>
+  <si>
+    <t>هل انت طالب ؟</t>
+  </si>
+  <si>
+    <t>Kodu Al</t>
+  </si>
+  <si>
+    <t>Toplam kazanç</t>
+  </si>
+  <si>
+    <t>Total des gains</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>EVET</t>
+  </si>
+  <si>
+    <t>OUI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>لا</t>
+  </si>
+  <si>
+    <t>HAYIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Non Student Registration</t>
+  </si>
+  <si>
+    <t>Öğrenci Olmayan Kayıt</t>
+  </si>
+  <si>
+    <t>Inscription non étudiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل لغير الطلاب  </t>
+  </si>
+  <si>
+    <t>Click here to Upload your Document</t>
+  </si>
+  <si>
+    <t>انقر هنا لتحميل المستند</t>
+  </si>
+  <si>
+    <t>Cliquez ici pour télécharger votre document</t>
+  </si>
+  <si>
+    <t>Dokümanınızı yüklemek için buraya tıklayın</t>
+  </si>
+  <si>
+    <t>Kimlik Kartı.</t>
+  </si>
+  <si>
+    <t>ID Card</t>
+  </si>
+  <si>
+    <t>Carte d'identité.</t>
+  </si>
+  <si>
+    <t>Criminal Record</t>
+  </si>
+  <si>
+    <t>Casier judiciaire</t>
+  </si>
+  <si>
+    <t>شهادة السوابق العدلية</t>
+  </si>
+  <si>
+    <t>Sabıka kaydı</t>
+  </si>
+  <si>
+    <t>بطاقة التعريف</t>
+  </si>
+  <si>
+    <t>بطاقة الطالب</t>
+  </si>
+  <si>
+    <t>Student Card</t>
+  </si>
+  <si>
+    <t>Öğrenci kartı</t>
+  </si>
+  <si>
+    <t>Carte d'étudiant</t>
+  </si>
+  <si>
+    <t>تسجيل الطلاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Student Registration</t>
+  </si>
+  <si>
+    <t>Öğrenci Kaydı</t>
+  </si>
+  <si>
+    <t>Inscription des étudiants</t>
   </si>
 </sst>
 </file>
@@ -2330,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CFAA1C-8117-44B0-AC04-C8FC135B5F66}">
   <dimension ref="A1:H534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B134" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5422,12 +5551,17 @@
       <c r="B176" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C176" s="5"/>
+      <c r="C176" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="D176" s="5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E176" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="5" t="s">
         <v>505</v>
       </c>
@@ -5437,78 +5571,171 @@
       <c r="D177" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E177" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B178" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B179" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B180" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B181" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B182" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B183" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B184" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B185" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B186" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B187" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>

--- a/APPLICATION INTERFACE TEXTE/APPLICATION INTERFACE TEXTE USER.xlsx
+++ b/APPLICATION INTERFACE TEXTE/APPLICATION INTERFACE TEXTE USER.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NEW-DESIGNE\APPLICATION INTERFACE TEXTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESIGN\F\NEW-DESIGNE\APPLICATION INTERFACE TEXTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D247A-0DEE-4481-80E5-65DF9240482A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA29E8F-5482-45AD-98D7-DF9F23DD2E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{34DD5217-F0FA-4B9A-9CB8-89431EAB1938}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{34DD5217-F0FA-4B9A-9CB8-89431EAB1938}"/>
   </bookViews>
   <sheets>
     <sheet name="application interface text User" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="web" sheetId="4" r:id="rId2"/>
     <sheet name="User notification text" sheetId="2" r:id="rId3"/>
     <sheet name="bybye" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="634">
   <si>
     <t xml:space="preserve">APPLICATION INTERFACE TEXT </t>
   </si>
@@ -1902,6 +1902,243 @@
   <si>
     <t>Inscription des étudiants</t>
   </si>
+  <si>
+    <t>Indicate the Disinfection Location</t>
+  </si>
+  <si>
+    <t>Indiquez le lieu de désinfection</t>
+  </si>
+  <si>
+    <t>حدد مكان التطهير</t>
+  </si>
+  <si>
+    <t>General Disinfection</t>
+  </si>
+  <si>
+    <t>التطهير العام</t>
+  </si>
+  <si>
+    <t>DésinfectionGénérale</t>
+  </si>
+  <si>
+    <t>Monitoring and Crisis Management  Platform.</t>
+  </si>
+  <si>
+    <t>Plateforme de Veille et de Gestion des Crises.</t>
+  </si>
+  <si>
+    <t>منصة مراقبة وإدارة الأزمات.</t>
+  </si>
+  <si>
+    <t>Cellule de Désinfection</t>
+  </si>
+  <si>
+    <t>Disinfection cell</t>
+  </si>
+  <si>
+    <t>wilaya of the crisis unit</t>
+  </si>
+  <si>
+    <t>wilaya de la cellule de crise</t>
+  </si>
+  <si>
+    <t>Francai</t>
+  </si>
+  <si>
+    <t>People's Democratic Republic of Algeria</t>
+  </si>
+  <si>
+    <t>الجمهورية الجزائرية الديمقراطية الشعبية</t>
+  </si>
+  <si>
+    <t>République Algérienne Démocratique et Populaire</t>
+  </si>
+  <si>
+    <t>Monitoring and Crisis Management Platform. 
+Disinfection cell.</t>
+  </si>
+  <si>
+    <t>Plateforme de Suivi et de Gestion deCrise.
+Cellule de Désinfection.</t>
+  </si>
+  <si>
+    <t>منصة مراقبة وإدارة الأزمات.
+خلية التطهير.</t>
+  </si>
+  <si>
+    <t>CONNECTING HANDS</t>
+  </si>
+  <si>
+    <t>P5I TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>Admin Access</t>
+  </si>
+  <si>
+    <t>Accès Administrateur</t>
+  </si>
+  <si>
+    <t>User  Access</t>
+  </si>
+  <si>
+    <t>Accès Utilisateur</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>خاص بالمشرف</t>
+  </si>
+  <si>
+    <t>المشرف</t>
+  </si>
+  <si>
+    <t>خاص بالأعضاء</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>إنشاء حساب</t>
+  </si>
+  <si>
+    <t>Créer un Compte</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>تسجيل الدخول</t>
+  </si>
+  <si>
+    <t>Numéro de Téléphone</t>
+  </si>
+  <si>
+    <t>رمز الدخول</t>
+  </si>
+  <si>
+    <t>Code D'identification</t>
+  </si>
+  <si>
+    <t>Mot de Passe</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>كلمة السر</t>
+  </si>
+  <si>
+    <t>Account Created Successfully</t>
+  </si>
+  <si>
+    <t>تم إنشاء الحساب بنجاح</t>
+  </si>
+  <si>
+    <t>Compte Créé Avec Succès</t>
+  </si>
+  <si>
+    <t>اسم المستخدم</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Nom D'utilisateur</t>
+  </si>
+  <si>
+    <t>Manage User Account</t>
+  </si>
+  <si>
+    <t>Gérer le Compte Utilisateur</t>
+  </si>
+  <si>
+    <t>إدارة حساب المستخدم</t>
+  </si>
+  <si>
+    <t>Create User Account</t>
+  </si>
+  <si>
+    <t>إنشاء حساب مستخدم</t>
+  </si>
+  <si>
+    <t>Créer Un Compte Utilisateur</t>
+  </si>
+  <si>
+    <t>Disable User Account</t>
+  </si>
+  <si>
+    <t>Désactiver Le Compte Utilisateur</t>
+  </si>
+  <si>
+    <t>إلغاء  حساب المستخدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User  </t>
+  </si>
+  <si>
+    <t>المستخدم</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>please share the login details by email:</t>
+  </si>
+  <si>
+    <t>veuillez partager les informations d'identification par email:</t>
+  </si>
+  <si>
+    <t>يرجى إرسال معلومات تسجيل الدخول عن طريق البريد الإلكتروني:</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Envoyer</t>
+  </si>
+  <si>
+    <t>Or Print The Login Details:</t>
+  </si>
+  <si>
+    <t>Ou imprimer les détails de connexion:</t>
+  </si>
+  <si>
+    <t>أو اطبع تفاصيل الاتصال:</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>طباعة</t>
+  </si>
+  <si>
+    <t>Impression</t>
+  </si>
+  <si>
+    <t>(The Password Should Be Provided By Your Administrator)</t>
+  </si>
+  <si>
+    <t>(يجب توفير كلمة المرور من قبل المسؤول الخاص بك)</t>
+  </si>
+  <si>
+    <t>(Infected Person Number)</t>
+  </si>
+  <si>
+    <t>(رقم الشخص المصاب)</t>
+  </si>
+  <si>
+    <t>(Numéro de personne infectée)</t>
+  </si>
+  <si>
+    <t>(Indicate the Disinfection Location)</t>
+  </si>
+  <si>
+    <t>(Indiquez le lieu de désinfection)</t>
+  </si>
+  <si>
+    <t>(حدد مكان التطهير)</t>
+  </si>
 </sst>
 </file>
 
@@ -1911,7 +2148,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1981,6 +2218,13 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2064,7 +2308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2142,6 +2386,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2459,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CFAA1C-8117-44B0-AC04-C8FC135B5F66}">
   <dimension ref="A1:H534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView topLeftCell="B175" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2516,7 +2768,9 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>569</v>
+      </c>
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
@@ -5716,28 +5970,54 @@
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
+      <c r="B188" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
+      <c r="B189" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
+      <c r="B190" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
+      <c r="B191" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>565</v>
+      </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+      <c r="B192" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.35">
@@ -7462,13 +7742,610 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A95E65A-C98B-4678-9542-6A4B4E336901}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" customWidth="1"/>
+    <col min="8" max="8" width="66.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
